--- a/GamesData.xlsx
+++ b/GamesData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>Título</t>
   </si>
@@ -46,7 +46,10 @@
     <t>NBA 2K24 Black Mamba Edition</t>
   </si>
   <si>
-    <t/>
+    <t>$24.99</t>
+  </si>
+  <si>
+    <t>$99.99</t>
   </si>
   <si>
     <t>https://image.api.playstation.com/vulcan/ap/rnd/202307/2809/2786898bb6a733168d63a6d243f07705e730c8476c5872d1.jpg?w=940</t>
@@ -55,6 +58,9 @@
     <t>STAR WARS Jedi: Survivor™</t>
   </si>
   <si>
+    <t>$31.49</t>
+  </si>
+  <si>
     <t>https://image.api.playstation.com/vulcan/ap/rnd/202304/2814/24a5bc14faa8f69c74a9a8d7b729509841a1c9046bc9a7f3.png?w=940</t>
   </si>
   <si>
@@ -100,160 +106,40 @@
     <t>Gran Turismo® 7</t>
   </si>
   <si>
+    <t>$29.99</t>
+  </si>
+  <si>
     <t>https://image.api.playstation.com/vulcan/ap/rnd/202109/1321/y7iyxoBE8VKotN89QCFhLgLM.png?w=940</t>
   </si>
   <si>
+    <t>$39.89</t>
+  </si>
+  <si>
     <t>NBA 2K24 Kobe Bryant Edition for PS4™</t>
   </si>
   <si>
+    <t>$11.99</t>
+  </si>
+  <si>
     <t>https://image.api.playstation.com/vulcan/ap/rnd/202307/2809/a9fe3100a67c5d90e6cc5d24ebab09b8305468493192deac.jpg?w=940</t>
   </si>
   <si>
     <t>NBA 2K24 Kobe Bryant Edition for PS5™</t>
   </si>
   <si>
+    <t>$17.49</t>
+  </si>
+  <si>
     <t>https://image.api.playstation.com/vulcan/ap/rnd/202307/2809/2c34881f74d68c60603b482bd3a2f838a187b89380e0d85a.jpg?w=940</t>
   </si>
   <si>
     <t>Hogwarts Legacy PS5 Version</t>
   </si>
   <si>
+    <t>$34.99</t>
+  </si>
+  <si>
     <t>https://image.api.playstation.com/vulcan/ap/rnd/202208/0921/3XopdGAJGRy3xNQKnQDvaCRs.png?w=940</t>
-  </si>
-  <si>
-    <t>Hogwarts Legacy PS4 Version</t>
-  </si>
-  <si>
-    <t>Mortal Kombat™ 1</t>
-  </si>
-  <si>
-    <t>https://image.api.playstation.com/vulcan/ap/rnd/202305/1515/c8388641302e1fd8f8f1044f13b398027f188eb695a0d652.jpg?w=940</t>
-  </si>
-  <si>
-    <t>UFC® 5</t>
-  </si>
-  <si>
-    <t>https://image.api.playstation.com/vulcan/ap/rnd/202309/0618/beb1a84d0ee21953fa958ffda32aa4643e4f31c5b24c0a14.png?w=940</t>
-  </si>
-  <si>
-    <t>Grand Theft Auto V (PlayStation®5)</t>
-  </si>
-  <si>
-    <t>https://image.api.playstation.com/vulcan/ap/rnd/202203/0302/bZ1JTRXzoyl3hkcsloKcCgdB.jpg?w=940</t>
-  </si>
-  <si>
-    <t>Grand Theft Auto V: Premium Edition</t>
-  </si>
-  <si>
-    <t>https://image.api.playstation.com/vulcan/img/rnd/202102/0422/TkQfZ0v0NF1p8YHovQPIYtr5.png?w=940</t>
-  </si>
-  <si>
-    <t>Suicide Squad: Kill the Justice League - Digital Deluxe Edition</t>
-  </si>
-  <si>
-    <t>$49.99</t>
-  </si>
-  <si>
-    <t>$99.99</t>
-  </si>
-  <si>
-    <t>https://image.api.playstation.com/vulcan/ap/rnd/202310/1220/993434409238400c5ce419709a38d81267a4e7e103263db3.jpg?w=940</t>
-  </si>
-  <si>
-    <t>Persona 3 Reload PS4 &amp; PS5</t>
-  </si>
-  <si>
-    <t>$52.49</t>
-  </si>
-  <si>
-    <t>https://image.api.playstation.com/vulcan/ap/rnd/202307/2605/19353f11f85964dd2be8eae4564a0e78b011a81824d9b4a9.png?w=940</t>
-  </si>
-  <si>
-    <t>Persona 3 Reload Digital Premium Edition PS4 &amp; PS5</t>
-  </si>
-  <si>
-    <t>https://image.api.playstation.com/vulcan/ap/rnd/202307/2807/ce36d13fc1ffcd40452e6039cb15c4b2502cc43f4be185a7.png?w=940</t>
-  </si>
-  <si>
-    <t>Persona 3 Reload DLC Pack PS4 &amp; PS5</t>
-  </si>
-  <si>
-    <t>$21.59</t>
-  </si>
-  <si>
-    <t>$26.99</t>
-  </si>
-  <si>
-    <t>https://image.api.playstation.com/vulcan/ap/rnd/202307/2605/f29f1faf9b60d864bb36ce7112909ada4843be179d00e191.png?w=940</t>
-  </si>
-  <si>
-    <t>Madden NFL 24 Deluxe Edition PS5™ &amp; PS4™</t>
-  </si>
-  <si>
-    <t>$29.99</t>
-  </si>
-  <si>
-    <t>https://image.api.playstation.com/vulcan/ap/rnd/202402/2716/0da33f37c119a2f4be11a0cba0811f2aeebb5a323b4c58e6.png?w=940</t>
-  </si>
-  <si>
-    <t>Alan Wake 2</t>
-  </si>
-  <si>
-    <t>https://image.api.playstation.com/vulcan/ap/rnd/202305/2420/2b117db6108244a85769f8009df39f8006b226d8a2831b3a.jpg?w=940</t>
-  </si>
-  <si>
-    <t>Alan Wake 2 Deluxe Edition</t>
-  </si>
-  <si>
-    <t>$63.99</t>
-  </si>
-  <si>
-    <t>$79.99</t>
-  </si>
-  <si>
-    <t>https://image.api.playstation.com/vulcan/ap/rnd/202305/2420/c49268f421ed16d45a53af7fed7fd615a1cb6285942ba9e6.jpg?w=940</t>
-  </si>
-  <si>
-    <t>Alan Wake 2 Deluxe Upgrade</t>
-  </si>
-  <si>
-    <t>ARK: Survival Ascended</t>
-  </si>
-  <si>
-    <t>$35.99</t>
-  </si>
-  <si>
-    <t>$44.99</t>
-  </si>
-  <si>
-    <t>https://image.api.playstation.com/vulcan/ap/rnd/202310/2502/1751043f9999ae22f2e6293fcf355e596f4183de063619da.png?w=940</t>
-  </si>
-  <si>
-    <t>It Takes Two PS4™ &amp; PS5™</t>
-  </si>
-  <si>
-    <t>$9.99</t>
-  </si>
-  <si>
-    <t>$39.99</t>
-  </si>
-  <si>
-    <t>https://image.api.playstation.com/vulcan/ap/rnd/202012/0815/UkFiVyReEoiV28rXgyHYKhfS.png?w=940</t>
-  </si>
-  <si>
-    <t>Marvel's Spider-Man Remastered</t>
-  </si>
-  <si>
-    <t>$24.99</t>
-  </si>
-  <si>
-    <t>https://image.api.playstation.com/grc/images/ratings/hd/esrb/t.png?w=54</t>
-  </si>
-  <si>
-    <t>The Crew™ Motorfest Deluxe Edition</t>
-  </si>
-  <si>
-    <t>The Crew™ Motorfest Gold Edition</t>
   </si>
 </sst>
 </file>
@@ -630,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E12"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -675,10 +561,10 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -686,101 +572,101 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
         <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -788,359 +674,53 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
